--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4055206.299296291</v>
+        <v>4128581.588282379</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7456093.186447995</v>
+        <v>7357815.411495334</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58.60114813899415</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>101.5798714036936</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>83.58354151325328</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>163.9206648785247</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>97.93764088892701</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>9.0186500846252</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>57.76187302956011</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.27570395100769</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>158.506848153196</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>33.84234274505293</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>127.650499052111</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274086</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>144.1060039253885</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>242.2063343437907</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1658,10 +1660,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>73.50096938092101</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>64.3419076393841</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1895,10 +1897,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>106.1568787371631</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>122.6519788371604</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>84.80648199306592</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>126.7955321565802</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>152.1587084863927</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>47.20011114811113</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2713,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.840380066451</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>115.5269768002191</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373747</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689363</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>12.32125122170434</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373747</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>42.67982042360389</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>225.4009168789491</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3793,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329113</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>110.7287735479535</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.58581884348087</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4192,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>170.9606397709137</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1310.22335213854</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>941.2608351981287</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.416431066817</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>609.3508327416157</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>240.388315801204</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2148.381336846134</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2148.381336846134</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y5" t="n">
-        <v>995.9506728057374</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>640.3667387675712</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>640.3667387675712</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>350.9495687306105</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X7" t="n">
-        <v>350.9495687306105</v>
+        <v>210.965822962985</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.9495687306105</v>
+        <v>210.965822962985</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>902.4179758042681</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>902.4179758042681</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>902.4179758042681</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>516.6297232060238</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2263.377807093308</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1932.314919749737</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1579.546264479623</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.01781586839</v>
+        <v>1206.080506218543</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,10 +4892,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.0633493392339</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>88.12716641132701</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>88.12716641132701</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>88.12716641132701</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>88.12716641132701</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>88.12716641132701</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>88.12716641132701</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694736</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,61 +5032,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.358329063101</v>
+        <v>675.7175987609741</v>
       </c>
       <c r="C13" t="n">
-        <v>563.4221461351941</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.712528333286</v>
+        <v>965.1347687979346</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.712528333286</v>
+        <v>675.7175987609741</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.712528333286</v>
+        <v>675.7175987609741</v>
       </c>
       <c r="Y13" t="n">
-        <v>877.919949189756</v>
+        <v>675.7175987609741</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5264,22 +5266,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,16 +5296,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.597763704656</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1089.812348494162</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>800.6837097077201</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="V16" t="n">
-        <v>545.9992215018333</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5512,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5534,22 +5536,22 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108312</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>3033.644633014776</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M18" t="n">
-        <v>3340.964766294738</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N18" t="n">
-        <v>3670.827393958771</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O18" t="n">
-        <v>4340.29115526143</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.72167055707</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4144.425579450937</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>4144.425579450937</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>4037.196409009358</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>4326.074044281177</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>4326.074044281177</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>4326.074044281177</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X19" t="n">
-        <v>4326.074044281177</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3904.376443449037</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C22" t="n">
-        <v>3904.376443449037</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D22" t="n">
-        <v>3904.376443449037</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>3756.463349866644</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>3609.573402368733</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368733</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4549.859459491671</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4421.783164384015</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>4421.783164384015</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W22" t="n">
-        <v>4132.365994347054</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X22" t="n">
-        <v>3904.376443449037</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y22" t="n">
-        <v>3904.376443449037</v>
+        <v>820.5263570570736</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028655</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823794</v>
@@ -6014,25 +6016,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2649.889045452864</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>2896.654173359328</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>3203.974306639289</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N24" t="n">
-        <v>4008.38588490344</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.69918977486</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4189.868928062646</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C25" t="n">
-        <v>4036.173262924875</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D25" t="n">
-        <v>4036.173262924875</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>4036.173262924875</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929846</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4660.934562929846</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4660.934562929846</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>4660.934562929846</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>4371.517392892885</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>4371.517392892885</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y25" t="n">
-        <v>4371.517392892885</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6214,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6248,7 +6250,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6300,22 +6302,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>592.8217113586345</v>
       </c>
       <c r="L27" t="n">
-        <v>816.7950850315608</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1124.115218311523</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.977845975555</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
         <v>2123.441607278215</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>865.0520438420759</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>637.0624929440586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6497,16 +6499,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1236.836466556557</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>2041.248044820708</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D31" t="n">
-        <v>478.047598850673</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E31" t="n">
-        <v>398.954596308321</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504518</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>3803.838860774509</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>3575.849309876492</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6695,16 +6697,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>398.954596308321</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504517</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103134</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6935,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6977,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7019,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504518</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1455.80534083709</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1455.80534083709</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1455.80534083709</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1455.80534083709</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1455.80534083709</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>1227.815789939073</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>1007.023210795543</v>
       </c>
     </row>
     <row r="38">
@@ -7157,34 +7159,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7199,16 +7201,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>167.8887746690278</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>316.9584588710876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775516</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>736.4580480076656</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>736.4580480076656</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>447.040877970705</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="41">
@@ -7494,19 +7496,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E43" t="n">
-        <v>398.954596308321</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,19 +7642,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7664,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3628.091576844582</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4840.060816606736</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4840.060816606736</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>4616.275401396241</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>4327.146762609799</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>4327.146762609799</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W46" t="n">
-        <v>4037.729592572839</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="X46" t="n">
-        <v>3809.740041674821</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="Y46" t="n">
-        <v>3809.740041674821</v>
+        <v>247.6350999123425</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>41.75994765618367</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P18" t="n">
-        <v>230.7151863772029</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>176.717654749845</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9729,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>283.6093329825487</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>182.0340742867944</v>
       </c>
       <c r="L27" t="n">
-        <v>285.1031356539327</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,13 +10193,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>28.12263706262996</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10665,22 +10667,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>29.47535963978211</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11142,13 +11144,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11309,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627443</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>5.100663089359756</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.72597625654882</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>9.931308980037272</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>124.4198406026822</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>221.8954447591933</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>42.4585942810493</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>95.02549818887138</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>159.4418202419972</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>15.08811261223511</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>178.509544240926</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24649,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>132.68261827014</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>51.71984429840869</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>274.2017471148866</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>155.2409895599994</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>60.8364355196282</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>175.7942247886375</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>89.37853356031192</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>115.5623585656773</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>627481.8564897438</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>627481.8564897438</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897436</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>627481.8564897436</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>627481.8564897438</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897436</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="F2" t="n">
+        <v>762506.6664885327</v>
+      </c>
+      <c r="G2" t="n">
         <v>762506.6664885326</v>
       </c>
-      <c r="F2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="G2" t="n">
-        <v>762506.6664885329</v>
-      </c>
       <c r="H2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="I2" t="n">
         <v>762506.6664885327</v>
       </c>
       <c r="J2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="K2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="L2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="M2" t="n">
         <v>762506.6664885326</v>
       </c>
-      <c r="K2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176766</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176765</v>
-      </c>
       <c r="N2" t="n">
-        <v>800515.7256176765</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176767</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885321</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.596890472448789e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,37 +26429,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819119</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819121</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.3948281912</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819121</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37944.09944680214</v>
+        <v>-37944.09944680202</v>
       </c>
       <c r="C6" t="n">
-        <v>552023.7797677423</v>
+        <v>552023.7797677426</v>
       </c>
       <c r="D6" t="n">
         <v>552023.7797677423</v>
       </c>
       <c r="E6" t="n">
-        <v>123184.6964760489</v>
+        <v>123184.6964760491</v>
       </c>
       <c r="F6" t="n">
+        <v>648344.7329529454</v>
+      </c>
+      <c r="G6" t="n">
         <v>648344.7329529453</v>
       </c>
-      <c r="G6" t="n">
-        <v>648344.7329529456</v>
-      </c>
       <c r="H6" t="n">
-        <v>648344.7329529454</v>
+        <v>648344.7329529452</v>
       </c>
       <c r="I6" t="n">
         <v>648344.7329529454</v>
       </c>
       <c r="J6" t="n">
-        <v>471921.5137603524</v>
+        <v>471921.513760352</v>
       </c>
       <c r="K6" t="n">
-        <v>603701.7128657479</v>
+        <v>648344.7329529452</v>
       </c>
       <c r="L6" t="n">
-        <v>658207.22496946</v>
+        <v>648344.7329529449</v>
       </c>
       <c r="M6" t="n">
-        <v>523406.2097356227</v>
+        <v>513543.7177191081</v>
       </c>
       <c r="N6" t="n">
-        <v>658207.2249694599</v>
+        <v>648344.7329529452</v>
       </c>
       <c r="O6" t="n">
-        <v>658207.2249694602</v>
+        <v>648344.7329529453</v>
       </c>
       <c r="P6" t="n">
-        <v>648344.7329529452</v>
+        <v>648344.7329529448</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>324.1326935244864</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,13 +27435,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>247.6610973137194</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>63.08165046690455</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>190.7623767421583</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>153.2865266193623</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>170.8133300973121</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>228.5200012124176</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.6003417907037</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>92.71731935509331</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>101.1232790472853</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>97.38460640597324</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>324.1236498972918</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8086013087276</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36209,16 +36211,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>509.9122281478579</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36449,13 +36451,13 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>565.9730352236569</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>332.6095128747336</v>
       </c>
       <c r="L27" t="n">
-        <v>534.360840609957</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36686,7 +36688,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>338.5470141130963</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415665</v>
@@ -36932,7 +36934,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R32" t="n">
         <v>59.8253897034981</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507413</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>71.3855385946888</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
         <v>59.8253897034981</v>
@@ -37862,13 +37864,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>438.0694836745878</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
@@ -37877,7 +37879,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,19 +38107,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>212.1940780208845</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4128581.588282379</v>
+        <v>4121564.573390667</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7357815.411495334</v>
+        <v>7357815.411495335</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>115.6735528025773</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>101.5798714036936</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>83.58354151325328</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>65.71159261092025</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>97.93764088892701</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.0186500846252</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>64.76935934992245</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>158.506848153196</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>127.650499052111</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274086</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>242.2063343437907</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>64.3419076393841</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>122.6519788371604</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.80648199306592</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>182.4037840350667</v>
       </c>
       <c r="X25" t="n">
-        <v>47.20011114811113</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>115.5269768002191</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>12.32125122170434</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67982042360389</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,7 +3717,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>225.4009168789491</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>110.7287735479535</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>170.9606397709137</v>
+        <v>237.6821551249385</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.375138862102</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2525.27842902086</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2306.643761992922</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2052.881976631014</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="W2" t="n">
-        <v>2539.514470837914</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="X2" t="n">
-        <v>2539.514470837914</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y2" t="n">
-        <v>2149.375138862102</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,28 +4412,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>643.7011644960776</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>389.0166762901907</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1704.018810322078</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1335.056293381666</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2148.381336846134</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2148.381336846134</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1795.61268157602</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1422.14692331494</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.14692331494</v>
+        <v>2090.6186503862</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>210.965822962985</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.965822962985</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="U8" t="n">
-        <v>2263.377807093308</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="V8" t="n">
-        <v>1932.314919749737</v>
+        <v>2300.662608371699</v>
       </c>
       <c r="W8" t="n">
-        <v>1579.546264479623</v>
+        <v>1947.893953101585</v>
       </c>
       <c r="X8" t="n">
-        <v>1206.080506218543</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1206.080506218543</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>421.6255084618049</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>421.6255084618049</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>421.6255084618049</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>421.6255084618049</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>421.6255084618049</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>702.5573625732399</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5032,10 +5032,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,22 +5044,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>1196.088769018224</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1503.408902298185</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.271529962218</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.7175987609741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>965.1347687979346</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>675.7175987609741</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>675.7175987609741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.7175987609741</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5363,16 +5363,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1322.84934122136</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1322.84934122136</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1322.84934122136</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>1322.84934122136</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5512,16 +5512,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5533,16 +5533,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141867</v>
@@ -5554,13 +5554,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,31 +5691,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5731,40 +5731,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>820.5263570570736</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>820.5263570570736</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>820.5263570570736</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,61 +5980,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394.223678370532</v>
+        <v>843.8929204411535</v>
       </c>
       <c r="C25" t="n">
-        <v>394.223678370532</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>1025.541385271393</v>
       </c>
       <c r="X25" t="n">
-        <v>394.223678370532</v>
+        <v>1025.541385271393</v>
       </c>
       <c r="Y25" t="n">
-        <v>394.223678370532</v>
+        <v>1025.541385271393</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,7 +6250,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>592.8217113586345</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6490,13 +6490,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3575.849309876492</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4093.25603081147</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>3803.838860774509</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3575.849309876492</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3575.849309876492</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6694,40 +6694,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6785,16 +6785,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>1120.710970609089</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1455.80534083709</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1455.80534083709</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1455.80534083709</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1455.80534083709</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>1455.80534083709</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>1227.815789939073</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>1007.023210795543</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,58 +7153,58 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7213,10 +7213,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1440.770281663976</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1240.850271579528</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U40" t="n">
-        <v>736.4580480076656</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V40" t="n">
-        <v>736.4580480076656</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>447.040877970705</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>447.040877970705</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.040877970705</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7411,52 +7411,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>674.2349604684848</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7666,19 +7666,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,16 +7715,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,7 +7745,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324574</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W46" t="n">
-        <v>247.6350999123425</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>247.6350999123425</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>73.53204524670008</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>182.0340742867944</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>145.2351313103794</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627443</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>9.931308980037272</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>221.8954447591933</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.02549818887138</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>104.1192143015243</v>
       </c>
       <c r="X25" t="n">
-        <v>178.509544240926</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>51.71984429840869</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>274.2017471148866</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>155.2409895599994</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>52.3998233988052</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>60.8364355196282</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>175.7942247886375</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>115.5623585656773</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>627481.8564897438</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>627481.8564897436</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>627481.8564897438</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>627481.8564897436</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="J2" t="n">
         <v>762506.6664885322</v>
@@ -26343,19 +26343,19 @@
         <v>762506.6664885324</v>
       </c>
       <c r="L2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="M2" t="n">
         <v>762506.6664885322</v>
       </c>
-      <c r="M2" t="n">
-        <v>762506.6664885326</v>
-      </c>
       <c r="N2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885321</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.6664885322</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>5.596890472448789e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26447,19 +26447,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37944.09944680202</v>
+        <v>-37944.09944680217</v>
       </c>
       <c r="C6" t="n">
-        <v>552023.7797677426</v>
+        <v>552023.7797677425</v>
       </c>
       <c r="D6" t="n">
         <v>552023.7797677423</v>
       </c>
       <c r="E6" t="n">
-        <v>123184.6964760491</v>
+        <v>122210.1052163273</v>
       </c>
       <c r="F6" t="n">
-        <v>648344.7329529454</v>
+        <v>647370.1416932235</v>
       </c>
       <c r="G6" t="n">
-        <v>648344.7329529453</v>
+        <v>647370.1416932234</v>
       </c>
       <c r="H6" t="n">
-        <v>648344.7329529452</v>
+        <v>647370.1416932233</v>
       </c>
       <c r="I6" t="n">
-        <v>648344.7329529454</v>
+        <v>647370.1416932233</v>
       </c>
       <c r="J6" t="n">
-        <v>471921.513760352</v>
+        <v>470946.9225006303</v>
       </c>
       <c r="K6" t="n">
-        <v>648344.7329529452</v>
+        <v>647370.1416932235</v>
       </c>
       <c r="L6" t="n">
-        <v>648344.7329529449</v>
+        <v>647370.1416932234</v>
       </c>
       <c r="M6" t="n">
-        <v>513543.7177191081</v>
+        <v>512569.1264593862</v>
       </c>
       <c r="N6" t="n">
-        <v>648344.7329529452</v>
+        <v>647370.1416932235</v>
       </c>
       <c r="O6" t="n">
-        <v>648344.7329529453</v>
+        <v>647370.1416932232</v>
       </c>
       <c r="P6" t="n">
-        <v>648344.7329529448</v>
+        <v>647370.1416932233</v>
       </c>
     </row>
   </sheetData>
@@ -26721,10 +26721,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>58.74216000639422</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>247.6610973137194</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>63.08165046690455</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>288.9714490097627</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>153.2865266193623</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.8133300973121</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>109.6463534590491</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>92.71731935509331</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>97.38460640597324</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>747.6947913160973</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35512,7 +35512,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>280.6254601782248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36612,13 +36612,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>332.6095128747336</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,19 +36919,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>455.6595083608457</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4121564.573390667</v>
+        <v>4126503.8362397</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>304.8745447086562</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -709,10 +709,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>115.6735528025773</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>65.71159261092025</v>
+        <v>66.81653105453776</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634315</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="8">
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>260.0847472194206</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>64.76935934992245</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634813</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.64843562452448</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274127</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>182.4037840350667</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151923</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385013</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.64843562452408</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.5645290049876</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>58.40168825977442</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>237.6821551249385</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2525.27842902086</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2306.643761992922</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2052.881976631014</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1721.819089287443</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1721.819089287443</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1721.819089287443</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y2" t="n">
-        <v>1721.819089287443</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,28 +4412,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1704.018810322078</v>
+        <v>1472.812633166741</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.056293381666</v>
+        <v>1103.85011622633</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.6186503862</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.6186503862</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
         <v>554.6442689908469</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1450.540220654586</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1081.577703714174</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>723.3120051074238</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>337.5237525091796</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>330.5782517599761</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>316.654847698567</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2631.72549571527</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2631.72549571527</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2631.72549571527</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2300.662608371699</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>1947.893953101585</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X8" t="n">
-        <v>1574.428194840505</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1837.140060718708</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430001</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150932</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5038,40 +5038,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5080,13 +5080,13 @@
         <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O12" t="n">
         <v>2123.441607278215</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="14">
@@ -5263,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5363,16 +5363,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5606,13 +5606,13 @@
         <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2312.465467126434</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2517.487947908644</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5706,13 +5706,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,22 +5737,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5937,22 +5937,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514087</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6059,31 +6059,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>843.8929204411535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>674.9567375132466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1025.541385271393</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1025.541385271393</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>1025.541385271393</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,43 +6214,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6648,10 +6648,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
         <v>869.3083006011506</v>
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,25 +7165,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7195,10 +7195,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7259,19 +7259,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1440.770281663976</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1240.850271579528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1017.064856369034</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,10 +7435,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7496,19 +7496,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="44">
@@ -7636,43 +7636,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>786.0822064765186</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>414.5002179180844</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>19.14409596997061</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>50.62661940943605</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298099</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>51.71984429841024</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>104.1192143015243</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>52.3998233988052</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>51.56266414401838</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>48.8408432116525</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="C2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176762</v>
-      </c>
-      <c r="C2" t="n">
-        <v>800515.7256176763</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="F2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="G2" t="n">
         <v>762506.6664885324</v>
-      </c>
-      <c r="G2" t="n">
-        <v>762506.6664885323</v>
       </c>
       <c r="H2" t="n">
         <v>762506.6664885322</v>
@@ -26337,22 +26337,22 @@
         <v>762506.6664885323</v>
       </c>
       <c r="J2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="K2" t="n">
         <v>762506.6664885322</v>
-      </c>
-      <c r="K2" t="n">
-        <v>762506.6664885324</v>
       </c>
       <c r="L2" t="n">
         <v>762506.6664885323</v>
       </c>
       <c r="M2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="N2" t="n">
+        <v>762506.6664885321</v>
+      </c>
+      <c r="O2" t="n">
         <v>762506.6664885324</v>
-      </c>
-      <c r="O2" t="n">
-        <v>762506.6664885321</v>
       </c>
       <c r="P2" t="n">
         <v>762506.6664885322</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687068</v>
+      </c>
+      <c r="F4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26438,28 +26438,28 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="O4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="O4" t="n">
-        <v>22174.60758687071</v>
-      </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37944.09944680217</v>
+        <v>-37944.09944680202</v>
       </c>
       <c r="C6" t="n">
-        <v>552023.7797677425</v>
+        <v>552023.7797677426</v>
       </c>
       <c r="D6" t="n">
         <v>552023.7797677423</v>
       </c>
       <c r="E6" t="n">
-        <v>122210.1052163273</v>
+        <v>123087.2373500766</v>
       </c>
       <c r="F6" t="n">
-        <v>647370.1416932235</v>
+        <v>648247.2738269728</v>
       </c>
       <c r="G6" t="n">
-        <v>647370.1416932234</v>
+        <v>648247.273826973</v>
       </c>
       <c r="H6" t="n">
-        <v>647370.1416932233</v>
+        <v>648247.2738269728</v>
       </c>
       <c r="I6" t="n">
-        <v>647370.1416932233</v>
+        <v>648247.2738269727</v>
       </c>
       <c r="J6" t="n">
-        <v>470946.9225006303</v>
+        <v>471824.0546343798</v>
       </c>
       <c r="K6" t="n">
-        <v>647370.1416932235</v>
+        <v>648247.273826973</v>
       </c>
       <c r="L6" t="n">
-        <v>647370.1416932234</v>
+        <v>648247.2738269729</v>
       </c>
       <c r="M6" t="n">
-        <v>512569.1264593862</v>
+        <v>513446.2585931356</v>
       </c>
       <c r="N6" t="n">
-        <v>647370.1416932235</v>
+        <v>648247.2738269727</v>
       </c>
       <c r="O6" t="n">
-        <v>647370.1416932232</v>
+        <v>648247.273826973</v>
       </c>
       <c r="P6" t="n">
-        <v>647370.1416932233</v>
+        <v>648247.2738269728</v>
       </c>
     </row>
   </sheetData>
@@ -26740,31 +26740,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170865</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>49.80849691202673</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.74216000639422</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>288.9714490097627</v>
+        <v>287.8665105661452</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866331</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>63.83802554493656</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>109.6463534590491</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>747.6947913160973</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>107.1571287550447</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>383.821192807449</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37636,13 +37636,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>410.0098272511731</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
